--- a/src/site/resources/Pendientes.xlsx
+++ b/src/site/resources/Pendientes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zamir\Documents\GitHub\TSPi\iteracion1\src\site\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\2015\U\Trabajos\Conceptos avanzados de ing de software\iteracion1\src\site\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>- Issue Tracking Log ITL </t>
   </si>
@@ -280,9 +280,6 @@
     <t>Lista de procesos de construccion requeridos (en clase)</t>
   </si>
   <si>
-    <t xml:space="preserve">Programa de integracion, </t>
-  </si>
-  <si>
     <r>
       <t>·</t>
     </r>
@@ -334,12 +331,36 @@
   <si>
     <t>TOTAL</t>
   </si>
+  <si>
+    <t>Semana</t>
+  </si>
+  <si>
+    <t>Fase</t>
+  </si>
+  <si>
+    <t>Entregable</t>
+  </si>
+  <si>
+    <t>Hecho?</t>
+  </si>
+  <si>
+    <t>Producir el plan de configuracion</t>
+  </si>
+  <si>
+    <t>Lista de objetivos</t>
+  </si>
+  <si>
+    <t>Producir el plan de calidad</t>
+  </si>
+  <si>
+    <t>Programa de integracion</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,6 +392,21 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -380,7 +416,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -388,36 +424,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,626 +765,886 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E69"/>
+  <dimension ref="B2:P71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="100" style="6" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="126.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="G2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+    </row>
+    <row r="3" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="E3" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="2:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="1" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="1" t="s">
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="1" t="s">
+      <c r="E7" s="2">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="1" t="s">
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="1" t="s">
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="1" t="s">
+      <c r="E11" s="2">
+        <v>6</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="7" t="s">
+      <c r="E12" s="2">
+        <v>6</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
         <v>4</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="7" t="s">
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="7" t="s">
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="7" t="s">
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9" t="s">
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="6" t="s">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E20">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="6" t="s">
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="6" t="s">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2">
+        <v>6</v>
+      </c>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="6" t="s">
+      <c r="E24" s="2">
+        <v>6</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="6" t="s">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="6" t="s">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="6" t="s">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="6" t="s">
+      <c r="E28" s="2"/>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="6" t="s">
+      <c r="E29" s="2"/>
+      <c r="F29" s="2">
+        <v>6</v>
+      </c>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="6" t="s">
+      <c r="E30" s="2">
+        <v>6</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="6" t="s">
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="6" t="s">
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="4">
         <v>5</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="C34" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="D34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="6" t="s">
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C34" s="6" t="s">
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C35" s="9" t="s">
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C36" s="6" t="s">
+      <c r="E37" s="2"/>
+      <c r="F37" s="2">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E36">
+      <c r="E38" s="2"/>
+      <c r="F38" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C37" s="6" t="s">
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E37">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C38" s="6" t="s">
+      <c r="E39" s="2"/>
+      <c r="F39" s="2">
+        <v>6</v>
+      </c>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E38">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C39" s="6" t="s">
+      <c r="E40" s="2"/>
+      <c r="F40" s="2">
+        <v>6</v>
+      </c>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C40" s="6" t="s">
+      <c r="E41" s="2"/>
+      <c r="F41" s="2">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C41" s="6" t="s">
+      <c r="E42" s="2"/>
+      <c r="F42" s="2">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C42" s="6" t="s">
+      <c r="E43" s="2"/>
+      <c r="F43" s="2">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E42">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C43" s="6" t="s">
+      <c r="E44" s="2"/>
+      <c r="F44" s="2">
+        <v>6</v>
+      </c>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D43">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C44" s="6" t="s">
+      <c r="E45" s="2">
+        <v>6</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C45" s="10" t="s">
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="4"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C46" s="10" t="s">
+      <c r="E47" s="2"/>
+      <c r="F47" s="2">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="4"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C47" s="6" t="s">
+      <c r="E48" s="2">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="4"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D47">
+      <c r="E49" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="4">
+        <v>6</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="2">
+        <v>6</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" s="2">
         <v>5</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C49" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C50" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C51" s="7" t="s">
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2">
+        <v>1</v>
+      </c>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2">
+        <v>5</v>
+      </c>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2">
+        <v>6</v>
+      </c>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2">
+        <v>6</v>
+      </c>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2">
+        <v>1</v>
+      </c>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2">
+        <v>1</v>
+      </c>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2">
+        <v>1</v>
+      </c>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2">
+        <v>6</v>
+      </c>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E65" s="2">
+        <v>6</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C52" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C53" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D53">
+      <c r="E66" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C54" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C55" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C56" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E56">
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E67" s="2">
+        <v>1</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E68" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C57" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E57">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C58" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E58">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C59" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C60" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C61" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C62" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E62">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C63" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D63">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C64" s="10" t="s">
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C71" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D64">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C65" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C66" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>47</v>
-      </c>
-      <c r="D69">
-        <f>SUM(D3:D68)</f>
-        <v>96</v>
-      </c>
-      <c r="E69">
-        <f>SUM(E3:E68)</f>
+      <c r="E71" s="9">
+        <f>SUM(E3:E70)</f>
+        <v>102</v>
+      </c>
+      <c r="F71" s="9">
+        <f>SUM(F3:F70)</f>
         <v>77</v>
       </c>
+      <c r="G71" s="9">
+        <f>SUM(G3:G70)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="A5:A14"/>
-    <mergeCell ref="A15:A31"/>
-    <mergeCell ref="B15:B31"/>
+  <mergeCells count="8">
+    <mergeCell ref="C50:C68"/>
+    <mergeCell ref="B50:B68"/>
+    <mergeCell ref="C4:C16"/>
+    <mergeCell ref="B4:B16"/>
+    <mergeCell ref="B17:B33"/>
+    <mergeCell ref="C17:C33"/>
+    <mergeCell ref="B34:B49"/>
+    <mergeCell ref="C34:C49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/site/resources/Pendientes.xlsx
+++ b/src/site/resources/Pendientes.xlsx
@@ -454,14 +454,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -485,6 +479,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -767,48 +767,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="126.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="126.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
@@ -827,13 +827,13 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="2:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4">
+      <c r="B4" s="13">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="2">
@@ -843,9 +843,9 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="2">
@@ -855,9 +855,9 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="2">
@@ -867,9 +867,9 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="2">
@@ -879,9 +879,9 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="2">
@@ -891,9 +891,9 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="2">
@@ -903,9 +903,9 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="2">
@@ -915,9 +915,9 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="2">
@@ -927,9 +927,9 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="2">
@@ -939,40 +939,50 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="1" t="s">
         <v>19</v>
       </c>
@@ -980,13 +990,15 @@
         <v>1</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="4">
+      <c r="B17" s="13">
         <v>4</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -999,8 +1011,8 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="C18" s="6"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="1" t="s">
         <v>21</v>
       </c>
@@ -1011,8 +1023,8 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="6"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="1" t="s">
         <v>23</v>
       </c>
@@ -1023,8 +1035,8 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="C20" s="6"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="1" t="s">
         <v>24</v>
       </c>
@@ -1035,8 +1047,8 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-      <c r="C21" s="6"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="1" t="s">
         <v>38</v>
       </c>
@@ -1047,8 +1059,8 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="C22" s="6"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="3" t="s">
         <v>25</v>
       </c>
@@ -1059,8 +1071,8 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="6"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="3" t="s">
         <v>26</v>
       </c>
@@ -1071,8 +1083,8 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-      <c r="C24" s="6"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="3" t="s">
         <v>27</v>
       </c>
@@ -1083,8 +1095,8 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="C25" s="6"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="3" t="s">
         <v>29</v>
       </c>
@@ -1095,8 +1107,8 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
-      <c r="C26" s="6"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="3" t="s">
         <v>30</v>
       </c>
@@ -1107,8 +1119,8 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-      <c r="C27" s="6"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="3" t="s">
         <v>31</v>
       </c>
@@ -1119,8 +1131,8 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="4"/>
-      <c r="C28" s="6"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="3" t="s">
         <v>32</v>
       </c>
@@ -1131,8 +1143,8 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="C29" s="6"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="3" t="s">
         <v>33</v>
       </c>
@@ -1143,8 +1155,8 @@
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="4"/>
-      <c r="C30" s="6"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
       <c r="D30" s="3" t="s">
         <v>34</v>
       </c>
@@ -1155,8 +1167,8 @@
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
-      <c r="C31" s="6"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
       <c r="D31" s="3" t="s">
         <v>37</v>
       </c>
@@ -1167,8 +1179,8 @@
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="4"/>
-      <c r="C32" s="6"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
       <c r="D32" s="3" t="s">
         <v>39</v>
       </c>
@@ -1179,8 +1191,8 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="4"/>
-      <c r="C33" s="6"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="3" t="s">
         <v>40</v>
       </c>
@@ -1191,10 +1203,10 @@
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="4">
+      <c r="B34" s="13">
         <v>5</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="3" t="s">
@@ -1207,8 +1219,8 @@
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="4"/>
-      <c r="C35" s="6"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="3" t="s">
         <v>16</v>
       </c>
@@ -1219,8 +1231,8 @@
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="4"/>
-      <c r="C36" s="6"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="3" t="s">
         <v>36</v>
       </c>
@@ -1229,8 +1241,8 @@
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="4"/>
-      <c r="C37" s="6"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
       <c r="D37" s="1" t="s">
         <v>38</v>
       </c>
@@ -1241,8 +1253,8 @@
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="4"/>
-      <c r="C38" s="6"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="3" t="s">
         <v>25</v>
       </c>
@@ -1253,8 +1265,8 @@
       <c r="G38" s="2"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="4"/>
-      <c r="C39" s="6"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
       <c r="D39" s="3" t="s">
         <v>26</v>
       </c>
@@ -1265,8 +1277,8 @@
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="4"/>
-      <c r="C40" s="6"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="14"/>
       <c r="D40" s="3" t="s">
         <v>27</v>
       </c>
@@ -1277,8 +1289,8 @@
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="4"/>
-      <c r="C41" s="6"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
       <c r="D41" s="3" t="s">
         <v>30</v>
       </c>
@@ -1289,8 +1301,8 @@
       <c r="G41" s="2"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="4"/>
-      <c r="C42" s="6"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="3" t="s">
         <v>31</v>
       </c>
@@ -1301,8 +1313,8 @@
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="4"/>
-      <c r="C43" s="6"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
       <c r="D43" s="3" t="s">
         <v>32</v>
       </c>
@@ -1313,8 +1325,8 @@
       <c r="G43" s="2"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="4"/>
-      <c r="C44" s="6"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
       <c r="D44" s="3" t="s">
         <v>33</v>
       </c>
@@ -1325,8 +1337,8 @@
       <c r="G44" s="2"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="4"/>
-      <c r="C45" s="6"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="14"/>
       <c r="D45" s="3" t="s">
         <v>34</v>
       </c>
@@ -1337,8 +1349,8 @@
       <c r="G45" s="2"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="4"/>
-      <c r="C46" s="6"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="14"/>
       <c r="D46" s="3" t="s">
         <v>37</v>
       </c>
@@ -1349,9 +1361,9 @@
       <c r="G46" s="2"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="4"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="7" t="s">
+      <c r="B47" s="13"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E47" s="2"/>
@@ -1361,9 +1373,9 @@
       <c r="G47" s="2"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="4"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="7" t="s">
+      <c r="B48" s="13"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E48" s="2">
@@ -1373,8 +1385,8 @@
       <c r="G48" s="2"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="4"/>
-      <c r="C49" s="6"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="14"/>
       <c r="D49" s="3" t="s">
         <v>41</v>
       </c>
@@ -1385,10 +1397,10 @@
       <c r="G49" s="2"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="4">
-        <v>6</v>
-      </c>
-      <c r="C50" s="4" t="s">
+      <c r="B50" s="13">
+        <v>6</v>
+      </c>
+      <c r="C50" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="3" t="s">
@@ -1401,8 +1413,8 @@
       <c r="G50" s="2"/>
     </row>
     <row r="51" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
       <c r="D51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1413,8 +1425,8 @@
       <c r="G51" s="2"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
       <c r="D52" s="1" t="s">
         <v>22</v>
       </c>
@@ -1425,8 +1437,8 @@
       <c r="G52" s="2"/>
     </row>
     <row r="53" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
       <c r="D53" s="1" t="s">
         <v>44</v>
       </c>
@@ -1437,9 +1449,9 @@
       <c r="G53" s="2"/>
     </row>
     <row r="54" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="8" t="s">
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E54" s="2">
@@ -1449,8 +1461,8 @@
       <c r="G54" s="2"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
       <c r="D55" s="3" t="s">
         <v>28</v>
       </c>
@@ -1461,8 +1473,8 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
       <c r="D56" s="3" t="s">
         <v>42</v>
       </c>
@@ -1473,8 +1485,8 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
       <c r="D57" s="1" t="s">
         <v>38</v>
       </c>
@@ -1485,8 +1497,8 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
       <c r="D58" s="3" t="s">
         <v>25</v>
       </c>
@@ -1497,8 +1509,8 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
       <c r="D59" s="3" t="s">
         <v>26</v>
       </c>
@@ -1509,8 +1521,8 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
       <c r="D60" s="3" t="s">
         <v>27</v>
       </c>
@@ -1521,8 +1533,8 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
       <c r="D61" s="3" t="s">
         <v>30</v>
       </c>
@@ -1533,8 +1545,8 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
       <c r="D62" s="3" t="s">
         <v>31</v>
       </c>
@@ -1545,8 +1557,8 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
       <c r="D63" s="3" t="s">
         <v>32</v>
       </c>
@@ -1557,8 +1569,8 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
       <c r="D64" s="3" t="s">
         <v>33</v>
       </c>
@@ -1569,8 +1581,8 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
       <c r="D65" s="3" t="s">
         <v>34</v>
       </c>
@@ -1581,9 +1593,9 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="7" t="s">
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E66" s="2">
@@ -1593,9 +1605,9 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="7" t="s">
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E67" s="2">
@@ -1605,8 +1617,8 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
       <c r="D68" s="3" t="s">
         <v>41</v>
       </c>
@@ -1617,20 +1629,20 @@
       <c r="G68" s="2"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E71" s="7">
         <f>SUM(E3:E70)</f>
-        <v>102</v>
-      </c>
-      <c r="F71" s="9">
+        <v>104</v>
+      </c>
+      <c r="F71" s="7">
         <f>SUM(F3:F70)</f>
         <v>77</v>
       </c>
-      <c r="G71" s="9">
+      <c r="G71" s="7">
         <f>SUM(G3:G70)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
